--- a/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
+++ b/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\fuels\FPIEBP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AZ/fuels/FPIEBP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4E0A33-3857-4E42-99DE-F3DBB58130FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B40547-B365-CD49-8AB2-9BA4887A341A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="1695" windowWidth="19470" windowHeight="20340" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
+    <workbookView xWindow="9320" yWindow="460" windowWidth="19480" windowHeight="16060" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>FPIEBP Fuel Production Import Export Balancing Priorities</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>exports</t>
+  </si>
+  <si>
+    <t>Arizona</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,6 +303,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,14 +622,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="10">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -633,90 +643,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>37</v>
       </c>
@@ -724,97 +734,97 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -834,13 +844,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="4" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>59</v>
       </c>
@@ -854,7 +864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
@@ -868,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -882,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -896,7 +906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
@@ -910,7 +920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
@@ -924,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
@@ -938,7 +948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>44</v>
       </c>
@@ -952,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
@@ -967,7 +977,7 @@
       </c>
       <c r="E9" s="9"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -981,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -995,7 +1005,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1009,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>49</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>50</v>
       </c>
@@ -1037,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>51</v>
       </c>
@@ -1051,7 +1061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>52</v>
       </c>
@@ -1065,7 +1075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>53</v>
       </c>
@@ -1079,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>54</v>
       </c>
@@ -1093,7 +1103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>55</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -1121,7 +1131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -1135,7 +1145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>58</v>
       </c>

--- a/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
+++ b/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AZ/fuels/FPIEBP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\AZ\fuels\FPIEBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08B40547-B365-CD49-8AB2-9BA4887A341A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E658D1B-198F-42DC-A9BD-3A53EABE471F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9320" yWindow="460" windowWidth="19480" windowHeight="16060" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="12735" activeTab="1" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -290,19 +290,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -620,22 +617,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290315BF-FDD8-4070-97AB-AF459B926789}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="10">
-        <v>44536</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C1" s="7">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -643,188 +640,188 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -840,18 +837,20 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="4" width="11.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="4" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B1" t="s">
@@ -864,22 +863,22 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="7">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3">
@@ -892,22 +891,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>40</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>41</v>
       </c>
       <c r="B5">
@@ -920,236 +919,235 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="9">
-        <v>2</v>
-      </c>
-      <c r="E9" s="9"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9">
-        <v>2</v>
-      </c>
-      <c r="D13" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9">
-        <v>3</v>
-      </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7">
-        <v>0</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="9">
-        <v>1</v>
-      </c>
-      <c r="C17" s="9">
-        <v>3</v>
-      </c>
-      <c r="D17" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>54</v>
       </c>
-      <c r="B18" s="9">
-        <v>2</v>
-      </c>
-      <c r="C18" s="9">
-        <v>1</v>
-      </c>
-      <c r="D18" s="9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="9">
-        <v>1</v>
-      </c>
-      <c r="C19" s="9">
-        <v>3</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="9">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
-        <v>3</v>
-      </c>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="9">
-        <v>1</v>
-      </c>
-      <c r="C21" s="9">
-        <v>3</v>
-      </c>
-      <c r="D21" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <v>1</v>
       </c>
       <c r="C22">

--- a/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
+++ b/InputData/fuels/FPIEBP/Fuel Prod Imp Exp Balancing Priorities.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\AZ\fuels\FPIEBP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7D16583-8B42-4175-B7AA-C78641D0FFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99F12D65-1FA9-4937-A496-A2810B6E4F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" activeTab="1" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="9815" windowHeight="7290" activeTab="1" xr2:uid="{B505BEC9-7B7D-48ED-A025-9B3B4252ED08}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -319,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -617,11 +617,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{290315BF-FDD8-4070-97AB-AF459B926789}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,10 +629,10 @@
         <v>63</v>
       </c>
       <c r="C1" s="7">
-        <v>45294</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -640,90 +640,90 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.75">
       <c r="A16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
@@ -731,97 +731,97 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A34" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A35" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A39" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A41" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A47" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A50" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.75">
       <c r="A53" t="s">
         <v>36</v>
       </c>
@@ -840,16 +840,16 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
-    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.26953125" customWidth="1"/>
+    <col min="2" max="4" width="11.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" s="4" t="s">
         <v>59</v>
       </c>
@@ -863,7 +863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -877,21 +877,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>39</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" s="5" t="s">
         <v>43</v>
       </c>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" s="5" t="s">
         <v>44</v>
       </c>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -989,7 +989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A13" t="s">
         <v>49</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A16" s="5" t="s">
         <v>52</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" t="s">
         <v>53</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" t="s">
         <v>58</v>
       </c>
